--- a/DMS/Templates/Report_Direct_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Direct_Sales_Order_By_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451ED6C0-DD72-453A-9C99-6EAA3A208F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DDE7D2-2AA5-469C-8145-5513C2A48BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>{{ReportSalesOrderByItems.ItemDetails.SalesOrderCounter}}</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO SẢN PHẨM TRỰC TIẾP</t>
+    <t>BÁO CÁO BÁN HÀNG TRỰC TIẾP THEO SẢN PHẨM</t>
   </si>
 </sst>
 </file>

--- a/DMS/Templates/Report_Direct_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Direct_Sales_Order_By_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DDE7D2-2AA5-469C-8145-5513C2A48BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340909F-047F-4D83-9F86-C94FB87347ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>BÁO CÁO BÁN HÀNG TRỰC TIẾP THEO SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.ItemName}}</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,22 +591,22 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="15.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +712,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -717,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -741,7 +744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
